--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H2">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I2">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J2">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N2">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q2">
-        <v>0.1500327957882222</v>
+        <v>0.005151313957</v>
       </c>
       <c r="R2">
-        <v>1.350295162094</v>
+        <v>0.046361825613</v>
       </c>
       <c r="S2">
-        <v>0.0001543104076288018</v>
+        <v>4.981173355527497E-06</v>
       </c>
       <c r="T2">
-        <v>0.0001543104076288018</v>
+        <v>4.981173355527497E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H3">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I3">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J3">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>39.485284</v>
       </c>
       <c r="O3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q3">
-        <v>1.432521716266222</v>
+        <v>0.03733991690266666</v>
       </c>
       <c r="R3">
-        <v>12.892695446396</v>
+        <v>0.336059252124</v>
       </c>
       <c r="S3">
-        <v>0.0014733645988053</v>
+        <v>3.61066323516212E-05</v>
       </c>
       <c r="T3">
-        <v>0.0014733645988053</v>
+        <v>3.61066323516212E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H4">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I4">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J4">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N4">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O4">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P4">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q4">
-        <v>1.001724157230667</v>
+        <v>0.02755126827866667</v>
       </c>
       <c r="R4">
-        <v>9.015517415076001</v>
+        <v>0.247961414508</v>
       </c>
       <c r="S4">
-        <v>0.00103028449361214</v>
+        <v>2.664128892283789E-05</v>
       </c>
       <c r="T4">
-        <v>0.00103028449361214</v>
+        <v>2.664128892283789E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H5">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I5">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J5">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N5">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O5">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P5">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q5">
-        <v>0.09023831459533334</v>
+        <v>0.003467923267</v>
       </c>
       <c r="R5">
-        <v>0.812144831358</v>
+        <v>0.031211309403</v>
       </c>
       <c r="S5">
-        <v>9.281111530173226E-05</v>
+        <v>3.353382674942689E-06</v>
       </c>
       <c r="T5">
-        <v>9.281111530173225E-05</v>
+        <v>3.35338267494269E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>45.22258</v>
       </c>
       <c r="I6">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J6">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N6">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q6">
-        <v>20.77940367989778</v>
+        <v>27.37113236112667</v>
       </c>
       <c r="R6">
-        <v>187.01463311908</v>
+        <v>246.34019125014</v>
       </c>
       <c r="S6">
-        <v>0.02137184896997142</v>
+        <v>0.02646710263943259</v>
       </c>
       <c r="T6">
-        <v>0.02137184896997142</v>
+        <v>0.02646710263943259</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>45.22258</v>
       </c>
       <c r="I7">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J7">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>39.485284</v>
       </c>
       <c r="O7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q7">
         <v>198.4029349458578</v>
@@ -883,10 +883,10 @@
         <v>1785.62641451272</v>
       </c>
       <c r="S7">
-        <v>0.2040596364641585</v>
+        <v>0.1918499671074818</v>
       </c>
       <c r="T7">
-        <v>0.2040596364641585</v>
+        <v>0.1918499671074819</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>45.22258</v>
       </c>
       <c r="I8">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J8">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N8">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O8">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P8">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q8">
-        <v>138.7378708078134</v>
+        <v>146.3916618298045</v>
       </c>
       <c r="R8">
-        <v>1248.64083727032</v>
+        <v>1317.52495646824</v>
       </c>
       <c r="S8">
-        <v>0.1426934510247014</v>
+        <v>0.14155655265141</v>
       </c>
       <c r="T8">
-        <v>0.1426934510247014</v>
+        <v>0.14155655265141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>45.22258</v>
       </c>
       <c r="I9">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J9">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N9">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O9">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P9">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q9">
-        <v>12.49792324750667</v>
+        <v>18.42655826292667</v>
       </c>
       <c r="R9">
-        <v>112.48130922756</v>
+        <v>165.83902436634</v>
       </c>
       <c r="S9">
-        <v>0.01285425376967898</v>
+        <v>0.01781795515077074</v>
       </c>
       <c r="T9">
-        <v>0.01285425376967898</v>
+        <v>0.01781795515077074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H10">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I10">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J10">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N10">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q10">
-        <v>0.9520968305211109</v>
+        <v>2.871841491805334</v>
       </c>
       <c r="R10">
-        <v>8.568871474689999</v>
+        <v>25.846573426248</v>
       </c>
       <c r="S10">
-        <v>0.0009792422333260028</v>
+        <v>0.002776988636237197</v>
       </c>
       <c r="T10">
-        <v>0.000979242233326003</v>
+        <v>0.002776988636237197</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H11">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I11">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J11">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>39.485284</v>
       </c>
       <c r="O11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q11">
-        <v>9.09067499905111</v>
+        <v>20.81688741101156</v>
       </c>
       <c r="R11">
-        <v>81.81607499146</v>
+        <v>187.351986699104</v>
       </c>
       <c r="S11">
-        <v>0.009349860857786232</v>
+        <v>0.02012933511378028</v>
       </c>
       <c r="T11">
-        <v>0.009349860857786234</v>
+        <v>0.02012933511378029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H12">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I12">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J12">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N12">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O12">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P12">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q12">
-        <v>6.356866111473333</v>
+        <v>15.35974628124089</v>
       </c>
       <c r="R12">
-        <v>57.21179500326</v>
+        <v>138.237716531168</v>
       </c>
       <c r="S12">
-        <v>0.006538107856683495</v>
+        <v>0.01485243562369415</v>
       </c>
       <c r="T12">
-        <v>0.006538107856683495</v>
+        <v>0.01485243562369415</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H13">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I13">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J13">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N13">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O13">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P13">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q13">
-        <v>0.5726455530366665</v>
+        <v>1.933356423565333</v>
       </c>
       <c r="R13">
-        <v>5.15380997733</v>
+        <v>17.400207812088</v>
       </c>
       <c r="S13">
-        <v>0.0005889723526890741</v>
+        <v>0.001869500400128994</v>
       </c>
       <c r="T13">
-        <v>0.0005889723526890741</v>
+        <v>0.001869500400128994</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H14">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I14">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J14">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N14">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O14">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P14">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q14">
-        <v>32.66056298895889</v>
+        <v>42.22140814582767</v>
       </c>
       <c r="R14">
-        <v>293.94506690063</v>
+        <v>379.9926733124491</v>
       </c>
       <c r="S14">
-        <v>0.03359175413438532</v>
+        <v>0.04082689485525537</v>
       </c>
       <c r="T14">
-        <v>0.03359175413438533</v>
+        <v>0.04082689485525537</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H15">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I15">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J15">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>39.485284</v>
       </c>
       <c r="O15">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P15">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q15">
-        <v>311.8449236472689</v>
+        <v>306.0469396427391</v>
       </c>
       <c r="R15">
-        <v>2806.60431282542</v>
+        <v>2754.422456784652</v>
       </c>
       <c r="S15">
-        <v>0.3207359899692024</v>
+        <v>0.2959386428422934</v>
       </c>
       <c r="T15">
-        <v>0.3207359899692025</v>
+        <v>0.2959386428422935</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H16">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I16">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J16">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N16">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O16">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P16">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q16">
-        <v>218.0648221804467</v>
+        <v>225.8168212302538</v>
       </c>
       <c r="R16">
-        <v>1962.58339962402</v>
+        <v>2032.351391072284</v>
       </c>
       <c r="S16">
-        <v>0.2242821072778306</v>
+        <v>0.2183584115686732</v>
       </c>
       <c r="T16">
-        <v>0.2242821072778306</v>
+        <v>0.2183584115686732</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H17">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I17">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J17">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N17">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O17">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P17">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q17">
-        <v>19.64393279732333</v>
+        <v>28.42393317445767</v>
       </c>
       <c r="R17">
-        <v>176.79539517591</v>
+        <v>255.815398570119</v>
       </c>
       <c r="S17">
-        <v>0.0202040044742385</v>
+        <v>0.02748513093353721</v>
       </c>
       <c r="T17">
-        <v>0.0202040044742385</v>
+        <v>0.02748513093353721</v>
       </c>
     </row>
   </sheetData>
